--- a/interfaceTest-demo/doc/ztbiz.xlsx
+++ b/interfaceTest-demo/doc/ztbiz.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ztbiz" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>证投业务api</t>
   </si>
@@ -122,6 +122,27 @@
     <t>/actuator/threaddump</t>
   </si>
   <si>
+    <t>立项流程接口</t>
+  </si>
+  <si>
+    <t>/approveProject/process/complete</t>
+  </si>
+  <si>
+    <t>流程结束</t>
+  </si>
+  <si>
+    <t>/approveProject/process/getItemInfo</t>
+  </si>
+  <si>
+    <t>获取标的信息</t>
+  </si>
+  <si>
+    <t>/approveProject/process/start</t>
+  </si>
+  <si>
+    <t>流程发起</t>
+  </si>
+  <si>
     <t>附件管理接口</t>
   </si>
   <si>
@@ -167,9 +188,6 @@
     <t>errorHtml</t>
   </si>
   <si>
-    <t>立项流程接口</t>
-  </si>
-  <si>
     <t>/initiateProject/discard</t>
   </si>
   <si>
@@ -179,7 +197,7 @@
     <t>/initiateProject/getProjectRegistrar</t>
   </si>
   <si>
-    <t>获取立项登记人员</t>
+    <t>获取综合管理岗员</t>
   </si>
   <si>
     <t>/initiateProject/initiation</t>
@@ -221,166 +239,247 @@
     <t>删除</t>
   </si>
   <si>
-    <t>/items/getItemsListByPid</t>
+    <t>/items/deleteItems</t>
+  </si>
+  <si>
+    <t>删除子标的</t>
+  </si>
+  <si>
+    <t>/items/export</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>/items/getItemByProjectId</t>
+  </si>
+  <si>
+    <t>通过流水ID获取主标信息</t>
+  </si>
+  <si>
+    <t>/items/getitemAndStreamByItemId</t>
+  </si>
+  <si>
+    <t>通过标的ID获取标的、流水信息</t>
+  </si>
+  <si>
+    <t>/items/getitemDetail</t>
+  </si>
+  <si>
+    <t>通过标的ID获取标的、流水、立项信息</t>
+  </si>
+  <si>
+    <t>/items/insertOrUpdate</t>
+  </si>
+  <si>
+    <t>添加或修改</t>
+  </si>
+  <si>
+    <t>/items/list</t>
+  </si>
+  <si>
+    <t>分页查询</t>
+  </si>
+  <si>
+    <t>/items/selectById</t>
+  </si>
+  <si>
+    <t>根据ID获取数据</t>
+  </si>
+  <si>
+    <t>/items/selectSchedule</t>
+  </si>
+  <si>
+    <t>进度分页查询</t>
+  </si>
+  <si>
+    <t>标的-流水关系表接口</t>
+  </si>
+  <si>
+    <t>/itemsStream/delete</t>
+  </si>
+  <si>
+    <t>/itemsStream/insertOrUpdate</t>
+  </si>
+  <si>
+    <t>/itemsStream/list</t>
+  </si>
+  <si>
+    <t>/itemsStream/selectById</t>
+  </si>
+  <si>
+    <t>/itemsStream/selectByStreamId</t>
+  </si>
+  <si>
+    <t>根据流水ID获取数据</t>
+  </si>
+  <si>
+    <t>/itemsStream/selectProjectByStreamId</t>
+  </si>
+  <si>
+    <t>根据主流水id获取所有流水信息</t>
+  </si>
+  <si>
+    <t>项目成员接口</t>
+  </si>
+  <si>
+    <t>/member/delete</t>
+  </si>
+  <si>
+    <t>/member/insertOrUpdate</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>/member/list</t>
+  </si>
+  <si>
+    <t>/member/selectById</t>
+  </si>
+  <si>
+    <t>/member/selectMemberByProjectByDefKey</t>
+  </si>
+  <si>
+    <t>获取项目下的所有角色</t>
+  </si>
+  <si>
+    <t>/member/selectMemberByProjectId</t>
+  </si>
+  <si>
+    <t>/member/selectUserByProjectId</t>
+  </si>
+  <si>
+    <t>获取项目下的所有成员</t>
+  </si>
+  <si>
+    <t>单点登录</t>
+  </si>
+  <si>
+    <t>/oa/login</t>
+  </si>
+  <si>
+    <t>项目预审接口</t>
+  </si>
+  <si>
+    <t>/pretrial/delete</t>
+  </si>
+  <si>
+    <t>/pretrial/getFirstByProjectId</t>
+  </si>
+  <si>
+    <t>根据项目ID获取第一条预审数据</t>
+  </si>
+  <si>
+    <t>/pretrial/getPretrialAndProjectById</t>
+  </si>
+  <si>
+    <t>根据预审ID获取预审和项目信息</t>
+  </si>
+  <si>
+    <t>/pretrial/getPretrialCommittee</t>
+  </si>
+  <si>
+    <t>获取预审委员</t>
+  </si>
+  <si>
+    <t>/pretrial/insertOrUpdate</t>
+  </si>
+  <si>
+    <t>/pretrial/list</t>
+  </si>
+  <si>
+    <t>预审流程接口</t>
+  </si>
+  <si>
+    <t>/pretrial/process/complete</t>
+  </si>
+  <si>
+    <t>/pretrial/process/meeting/audit</t>
+  </si>
+  <si>
+    <t>会议结果审核</t>
+  </si>
+  <si>
+    <t>/pretrial/process/start</t>
+  </si>
+  <si>
+    <t>/pretrial/process/voter/suggest</t>
+  </si>
+  <si>
+    <t>委员表决</t>
+  </si>
+  <si>
+    <t>/pretrial/process/voter/summary</t>
+  </si>
+  <si>
+    <t>意见总结</t>
+  </si>
+  <si>
+    <t>/pretrial/selectById</t>
+  </si>
+  <si>
+    <t>根据ID获取预审数据</t>
+  </si>
+  <si>
+    <t>/pretrial/validData</t>
+  </si>
+  <si>
+    <t>保存前校验数据是否更新</t>
+  </si>
+  <si>
+    <t>项目管理接口</t>
+  </si>
+  <si>
+    <t>/project/batchUpdate</t>
+  </si>
+  <si>
+    <t>分层产品批量修改</t>
+  </si>
+  <si>
+    <t>/project/discardProjectById</t>
+  </si>
+  <si>
+    <t>/project/getAllProjectManager</t>
+  </si>
+  <si>
+    <t>获取所有项目负责人</t>
+  </si>
+  <si>
+    <t>/project/getDetailByProjectId</t>
+  </si>
+  <si>
+    <t>通过流水id获取详细信息</t>
+  </si>
+  <si>
+    <t>/project/getHisInvestByProjectId</t>
+  </si>
+  <si>
+    <t>根据流水id获取投决历史数据</t>
+  </si>
+  <si>
+    <t>/project/getHistoryInvestList</t>
+  </si>
+  <si>
+    <t>获取历史投资信息</t>
+  </si>
+  <si>
+    <t>/project/getInvestAdvanceStatusByPId</t>
+  </si>
+  <si>
+    <t>通过标的id获取投前推进意见</t>
+  </si>
+  <si>
+    <t>/project/getItemsListByPid</t>
   </si>
   <si>
     <t>通过标的pid获取标的列表</t>
   </si>
   <si>
-    <t>/items/getitemAndStreamByItemId</t>
-  </si>
-  <si>
-    <t>通过标的ID获取标的、流水信息</t>
-  </si>
-  <si>
-    <t>/items/getitemDetail</t>
-  </si>
-  <si>
-    <t>通过标的ID获取流水、立项信息</t>
-  </si>
-  <si>
-    <t>/items/insertOrUpdate</t>
-  </si>
-  <si>
-    <t>添加或修改</t>
-  </si>
-  <si>
-    <t>/items/list</t>
-  </si>
-  <si>
-    <t>分页查询</t>
-  </si>
-  <si>
-    <t>/items/selectById</t>
-  </si>
-  <si>
-    <t>根据ID获取数据</t>
-  </si>
-  <si>
-    <t>项目成员接口</t>
-  </si>
-  <si>
-    <t>/member/delete</t>
-  </si>
-  <si>
-    <t>/member/insertOrUpdate</t>
-  </si>
-  <si>
-    <t>添加</t>
-  </si>
-  <si>
-    <t>/member/list</t>
-  </si>
-  <si>
-    <t>/member/selectById</t>
-  </si>
-  <si>
-    <t>/member/selectMemberByProjectByDefKey</t>
-  </si>
-  <si>
-    <t>获取项目下的所有角色</t>
-  </si>
-  <si>
-    <t>/member/selectMemberByProjectId</t>
-  </si>
-  <si>
-    <t>/member/selectUserByProjectId</t>
-  </si>
-  <si>
-    <t>获取项目下的所有成员</t>
-  </si>
-  <si>
-    <t>单点登录</t>
-  </si>
-  <si>
-    <t>/oa/login</t>
-  </si>
-  <si>
-    <t>项目预审接口</t>
-  </si>
-  <si>
-    <t>/pretrial/delete</t>
-  </si>
-  <si>
-    <t>/pretrial/getFirstByProjectId</t>
-  </si>
-  <si>
-    <t>根据项目ID获取第一条预审数据</t>
-  </si>
-  <si>
-    <t>/pretrial/getPretrialAndProjectById</t>
-  </si>
-  <si>
-    <t>根据预审ID获取预审和项目信息</t>
-  </si>
-  <si>
-    <t>/pretrial/getPretrialCommittee</t>
-  </si>
-  <si>
-    <t>获取预审委员</t>
-  </si>
-  <si>
-    <t>/pretrial/insertOrUpdate</t>
-  </si>
-  <si>
-    <t>/pretrial/list</t>
-  </si>
-  <si>
-    <t>预审流程接口</t>
-  </si>
-  <si>
-    <t>/pretrial/process/complete</t>
-  </si>
-  <si>
-    <t>流程结束</t>
-  </si>
-  <si>
-    <t>/pretrial/process/start</t>
-  </si>
-  <si>
-    <t>流程发起</t>
-  </si>
-  <si>
-    <t>/pretrial/process/voter/suggest</t>
-  </si>
-  <si>
-    <t>委员表决</t>
-  </si>
-  <si>
-    <t>/pretrial/process/voter/summary</t>
-  </si>
-  <si>
-    <t>意见总结</t>
-  </si>
-  <si>
-    <t>/pretrial/selectById</t>
-  </si>
-  <si>
-    <t>根据ID获取预审数据</t>
-  </si>
-  <si>
-    <t>/pretrial/validData</t>
-  </si>
-  <si>
-    <t>保存前校验数据是否更新</t>
-  </si>
-  <si>
-    <t>项目管理接口</t>
-  </si>
-  <si>
-    <t>/project/discardProjectById</t>
-  </si>
-  <si>
-    <t>/project/getAllProjectManager</t>
-  </si>
-  <si>
-    <t>获取所有项目负责人</t>
-  </si>
-  <si>
-    <t>/project/getHistoryInvestList</t>
-  </si>
-  <si>
-    <t>获取历史投资信息</t>
+    <t>/project/getLayeredItems</t>
+  </si>
+  <si>
+    <t>获取分层产品信息</t>
   </si>
   <si>
     <t>/project/getProjectDepts</t>
@@ -431,106 +530,151 @@
     <t>获取项目状态列表</t>
   </si>
   <si>
-    <t>/project/getSeriesList</t>
+    <t>/project/insertOrUpdate</t>
+  </si>
+  <si>
+    <t>/project/isDiscard</t>
+  </si>
+  <si>
+    <t>/project/isProcessRunning</t>
+  </si>
+  <si>
+    <t>校验流程是否在途</t>
+  </si>
+  <si>
+    <t>/project/list</t>
+  </si>
+  <si>
+    <t>/project/outPool</t>
+  </si>
+  <si>
+    <t>出池</t>
+  </si>
+  <si>
+    <t>/project/selectById</t>
+  </si>
+  <si>
+    <t>/project/selectByProjectCode</t>
+  </si>
+  <si>
+    <t>根据ProjectCode查询</t>
+  </si>
+  <si>
+    <t>/project/startInvesting</t>
+  </si>
+  <si>
+    <t>开始投资</t>
+  </si>
+  <si>
+    <t>/project/updateProjectNewStatus</t>
+  </si>
+  <si>
+    <t>根据项目id修改项目状态</t>
+  </si>
+  <si>
+    <t>新项目表（关联投资标的）接口</t>
+  </si>
+  <si>
+    <t>/projectNew/delete</t>
+  </si>
+  <si>
+    <t>/projectNew/generate</t>
+  </si>
+  <si>
+    <t>生成系统编号</t>
+  </si>
+  <si>
+    <t>/projectNew/getProjectNewStatus</t>
+  </si>
+  <si>
+    <t>获取项目状态</t>
+  </si>
+  <si>
+    <t>/projectNew/insertOrUpdate</t>
+  </si>
+  <si>
+    <t>/projectNew/isDelete</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>/projectNew/isScrap</t>
+  </si>
+  <si>
+    <t>是否废弃</t>
+  </si>
+  <si>
+    <t>/projectNew/list</t>
+  </si>
+  <si>
+    <t>/projectNew/queryAll</t>
+  </si>
+  <si>
+    <t>通过实体作为筛选条件查询</t>
+  </si>
+  <si>
+    <t>/projectNew/scrap</t>
+  </si>
+  <si>
+    <t>/projectNew/selectAllProjectNewList</t>
+  </si>
+  <si>
+    <t>获取所有的项目信息</t>
+  </si>
+  <si>
+    <t>/projectNew/selectById</t>
+  </si>
+  <si>
+    <t>/projectNew/selectItemsByProjectId</t>
+  </si>
+  <si>
+    <t>根据项目ID获取标的数据</t>
+  </si>
+  <si>
+    <t>/projectNew/selectItemsStreamByProjectId</t>
+  </si>
+  <si>
+    <t>根据项目ID获取标的流水数据</t>
+  </si>
+  <si>
+    <t>/projectNew/selectProjectByItemId</t>
+  </si>
+  <si>
+    <t>根据标的ID获取项目</t>
+  </si>
+  <si>
+    <t>/projectNew/validItemName</t>
+  </si>
+  <si>
+    <t>同一项目下，标的名称校验</t>
+  </si>
+  <si>
+    <t>储架管理接口</t>
+  </si>
+  <si>
+    <t>/series/deleteSeries</t>
+  </si>
+  <si>
+    <t>删除储架</t>
+  </si>
+  <si>
+    <t>/series/getSeriesList</t>
   </si>
   <si>
     <t>获取ABS储架系列</t>
   </si>
   <si>
-    <t>/project/insertOrUpdate</t>
-  </si>
-  <si>
-    <t>/project/isDiscard</t>
-  </si>
-  <si>
-    <t>/project/list</t>
-  </si>
-  <si>
-    <t>/project/saveSeries</t>
+    <t>/series/saveOrUpdateSeries</t>
   </si>
   <si>
     <t>新增储架</t>
   </si>
   <si>
-    <t>/project/selectById</t>
-  </si>
-  <si>
-    <t>/project/selectByProjectCode</t>
-  </si>
-  <si>
-    <t>根据ProjectCode查询</t>
-  </si>
-  <si>
-    <t>/project/startInvesting</t>
-  </si>
-  <si>
-    <t>开始投资</t>
-  </si>
-  <si>
-    <t>新项目表（关联投资标的）接口</t>
-  </si>
-  <si>
-    <t>/projectNew/delete</t>
-  </si>
-  <si>
-    <t>/projectNew/generate</t>
-  </si>
-  <si>
-    <t>生成系统编号</t>
-  </si>
-  <si>
-    <t>/projectNew/getProjectNewStatus</t>
-  </si>
-  <si>
-    <t>获取项目状态</t>
-  </si>
-  <si>
-    <t>/projectNew/insertOrUpdate</t>
-  </si>
-  <si>
-    <t>/projectNew/isDelete</t>
-  </si>
-  <si>
-    <t>是否删除</t>
-  </si>
-  <si>
-    <t>/projectNew/isScrap</t>
-  </si>
-  <si>
-    <t>是否废弃</t>
-  </si>
-  <si>
-    <t>/projectNew/list</t>
-  </si>
-  <si>
-    <t>/projectNew/queryAll</t>
-  </si>
-  <si>
-    <t>通过实体作为筛选条件查询</t>
-  </si>
-  <si>
-    <t>/projectNew/scrap</t>
-  </si>
-  <si>
-    <t>/projectNew/selectById</t>
-  </si>
-  <si>
-    <t>/projectNew/selectItemsByProjectId</t>
-  </si>
-  <si>
-    <t>根据项目ID获取标的数据</t>
-  </si>
-  <si>
-    <t>/projectNew/selectItemsStreamByProjectId</t>
-  </si>
-  <si>
-    <t>根据项目ID获取标的流水数据</t>
-  </si>
-  <si>
-    <t>/projectNew/validItemName</t>
-  </si>
-  <si>
-    <t>同一项目下，标的名称校验</t>
+    <t>/series/seriesList</t>
+  </si>
+  <si>
+    <t>储架系列分页查询</t>
   </si>
   <si>
     <t>标的入池接口</t>
@@ -800,10 +944,19 @@
     <t>getBasicProjectInfoByVoterId</t>
   </si>
   <si>
+    <t>/zt/investment/getBasicProjectInfox</t>
+  </si>
+  <si>
+    <t>getBasicProjectInfox</t>
+  </si>
+  <si>
     <t>/zt/investment/getDetail</t>
   </si>
   <si>
     <t>getDetail</t>
+  </si>
+  <si>
+    <t>/zt/investment/meeting/audit</t>
   </si>
   <si>
     <t>/zt/investment/newStartFormAssignee</t>
@@ -905,18 +1058,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1209,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1684,7 +1837,7 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>37</v>
@@ -1701,7 +1854,7 @@
         <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
@@ -1718,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -1729,16 +1882,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1746,16 +1899,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1763,16 +1916,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
         <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1780,16 +1933,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
         <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1797,16 +1950,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1814,13 +1967,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
         <v>56</v>
@@ -1831,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -1848,7 +2001,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
@@ -1865,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
@@ -1882,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -1899,16 +2052,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
         <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1916,16 +2069,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
         <v>68</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1933,16 +2086,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
         <v>70</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1950,13 +2103,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
         <v>73</v>
@@ -1967,13 +2120,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
         <v>75</v>
@@ -1984,7 +2137,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
@@ -2001,13 +2154,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>79</v>
@@ -2018,16 +2171,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
         <v>80</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
         <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2035,13 +2188,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>83</v>
@@ -2052,7 +2205,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
@@ -2061,7 +2214,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2069,16 +2222,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2086,16 +2239,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2103,16 +2256,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2120,16 +2273,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2137,16 +2290,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2154,16 +2307,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2171,16 +2324,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2188,7 +2341,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
         <v>97</v>
@@ -2205,7 +2358,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
         <v>99</v>
@@ -2222,16 +2375,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2239,16 +2392,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2256,16 +2409,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2273,16 +2426,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2290,16 +2443,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
         <v>108</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2307,16 +2460,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2324,16 +2477,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2341,16 +2494,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2358,16 +2511,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2375,16 +2528,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
         <v>116</v>
       </c>
-      <c r="C69" t="s">
-        <v>118</v>
-      </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2392,16 +2545,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2409,16 +2562,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2426,16 +2579,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2443,16 +2596,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2460,16 +2613,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2477,16 +2630,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2494,16 +2647,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2511,16 +2664,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2528,16 +2681,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2545,16 +2698,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2562,16 +2715,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2579,16 +2732,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2596,16 +2749,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2613,16 +2766,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2630,16 +2783,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2647,16 +2800,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
         <v>146</v>
-      </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2664,16 +2817,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
         <v>148</v>
-      </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2681,16 +2834,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
         <v>150</v>
-      </c>
-      <c r="C87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2698,16 +2851,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
         <v>152</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2715,16 +2868,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
         <v>154</v>
-      </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2732,16 +2885,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
         <v>156</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2749,13 +2902,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
         <v>157</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
         <v>158</v>
@@ -2766,13 +2919,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
         <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
         <v>160</v>
@@ -2783,7 +2936,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
         <v>161</v>
@@ -2792,7 +2945,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2800,16 +2953,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2817,16 +2970,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2834,16 +2987,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2851,16 +3004,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2868,16 +3021,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2885,16 +3038,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2902,16 +3055,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
         <v>173</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2919,16 +3072,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2936,16 +3089,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2953,16 +3106,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2970,16 +3123,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2987,16 +3140,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3004,16 +3157,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3021,16 +3174,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3038,16 +3191,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3055,16 +3208,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3072,16 +3225,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3089,13 +3242,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C111" t="s">
         <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E111" t="s">
         <v>193</v>
@@ -3106,16 +3259,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" t="s">
         <v>194</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
         <v>195</v>
-      </c>
-      <c r="D112" t="s">
-        <v>48</v>
-      </c>
-      <c r="E112" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3123,16 +3276,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3140,16 +3293,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3157,16 +3310,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3174,16 +3327,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D116" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3191,16 +3344,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D117" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3208,16 +3361,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3225,16 +3378,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3242,16 +3395,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D120" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3259,16 +3412,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D121" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3276,16 +3429,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3293,16 +3446,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3310,16 +3463,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3327,16 +3480,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D125" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3344,16 +3497,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D126" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3361,16 +3514,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D127" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3378,16 +3531,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D128" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3395,16 +3548,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D129" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3412,16 +3565,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D130" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3429,16 +3582,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C131" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D131" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3446,16 +3599,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3463,16 +3616,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3480,16 +3633,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D134" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3497,16 +3650,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D135" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3514,16 +3667,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3531,16 +3684,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C137" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D137" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E137" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3548,16 +3701,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="C138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3565,16 +3718,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D139" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E139" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3582,16 +3735,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" t="s">
         <v>247</v>
       </c>
-      <c r="C140" t="s">
-        <v>250</v>
-      </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E140" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3599,16 +3752,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E141" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3616,16 +3769,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E142" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3633,16 +3786,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D143" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E143" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3650,16 +3803,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>242</v>
+      </c>
+      <c r="C144" t="s">
+        <v>254</v>
+      </c>
+      <c r="D144" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" t="s">
         <v>255</v>
-      </c>
-      <c r="C144" t="s">
-        <v>257</v>
-      </c>
-      <c r="D144" t="s">
-        <v>48</v>
-      </c>
-      <c r="E144" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3667,16 +3820,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D145" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E145" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3684,16 +3837,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D146" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E146" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3701,16 +3854,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C147" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D147" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E147" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3718,16 +3871,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D148" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E148" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3735,16 +3888,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E149" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3752,16 +3905,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D150" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3769,16 +3922,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D151" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3786,16 +3939,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C152" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D152" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E152" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3803,16 +3956,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C153" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3820,16 +3973,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C154" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D154" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E154" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3837,16 +3990,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C155" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D155" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E155" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3854,16 +4007,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D156" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E156" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3871,19 +4024,495 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C157" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" t="s">
         <v>280</v>
       </c>
-      <c r="D157" t="s">
-        <v>48</v>
-      </c>
-      <c r="E157" t="s">
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" t="s">
         <v>281</v>
       </c>
+      <c r="D158" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" t="s">
+        <v>283</v>
+      </c>
+      <c r="D159" t="s">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>242</v>
+      </c>
+      <c r="C160" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" t="s">
+        <v>287</v>
+      </c>
+      <c r="D161" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>242</v>
+      </c>
+      <c r="C164" t="s">
+        <v>293</v>
+      </c>
+      <c r="D164" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>295</v>
+      </c>
+      <c r="C165" t="s">
+        <v>296</v>
+      </c>
+      <c r="D165" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166" t="s">
+        <v>298</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>295</v>
+      </c>
+      <c r="C167" t="s">
+        <v>300</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>295</v>
+      </c>
+      <c r="C168" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" t="s">
+        <v>304</v>
+      </c>
+      <c r="D169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>303</v>
+      </c>
+      <c r="C171" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>309</v>
+      </c>
+      <c r="D172" t="s">
+        <v>55</v>
+      </c>
+      <c r="E172" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>303</v>
+      </c>
+      <c r="C173" t="s">
+        <v>311</v>
+      </c>
+      <c r="D173" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>303</v>
+      </c>
+      <c r="C174" t="s">
+        <v>313</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>303</v>
+      </c>
+      <c r="C175" t="s">
+        <v>314</v>
+      </c>
+      <c r="D175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" t="s">
+        <v>316</v>
+      </c>
+      <c r="D176" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>303</v>
+      </c>
+      <c r="C177" t="s">
+        <v>318</v>
+      </c>
+      <c r="D177" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" t="s">
+        <v>55</v>
+      </c>
+      <c r="E178" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" t="s">
+        <v>322</v>
+      </c>
+      <c r="D179" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>303</v>
+      </c>
+      <c r="C180" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>303</v>
+      </c>
+      <c r="C181" t="s">
+        <v>325</v>
+      </c>
+      <c r="D181" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>303</v>
+      </c>
+      <c r="C182" t="s">
+        <v>327</v>
+      </c>
+      <c r="D182" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>303</v>
+      </c>
+      <c r="C183" t="s">
+        <v>328</v>
+      </c>
+      <c r="D183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>303</v>
+      </c>
+      <c r="C184" t="s">
+        <v>330</v>
+      </c>
+      <c r="D184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>303</v>
+      </c>
+      <c r="C185" t="s">
+        <v>331</v>
+      </c>
+      <c r="D185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>